--- a/pred_ohlcv/54_21/2020-01-25 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1006198.7468</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1006198.7468</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>979198.7468</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>981198.7468</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>999198.7468</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>999151.7468</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>999292.7468</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -782,7 +782,7 @@
         <v>964594.6812</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>771323.1527999996</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>624109.1598999996</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-66690.38960000049</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>469850.4394999995</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>469850.4394999995</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>467994.2062999995</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>467850.4394999995</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>467850.4394999995</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>467850.4394999995</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>381011.2966999995</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>381011.2966999995</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>375269.9706999995</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>396619.7813999995</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>348416.1058999995</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>356770.6402999995</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1499781.137674591</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>952234.5902573521</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>959007.7202573521</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>961846.9202573521</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>323580.7284573521</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>305792.1120573521</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>447071.0957573521</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>427071.0957573521</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-67932.70254264789</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-67932.70254264789</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-68898.5114426479</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-68898.5114426479</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-90597.39184264789</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-90597.39184264789</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-111822.4982426479</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-187556.3595426479</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-183344.4771426479</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-181344.4771426479</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-181344.4771426479</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-180844.4771426479</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1006198.7468</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1006198.7468</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>979198.7468</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>981198.7468</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>999198.7468</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>999151.7468</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>999292.7468</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -782,7 +782,7 @@
         <v>964594.6812</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>947335.9248999996</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>771323.1527999996</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-49327.70070000049</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-53895.38960000049</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-30690.38960000049</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-30965.38960000049</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-50149.56050000049</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>209850.4394999995</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>209850.4394999995</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>380917.2966999995</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>381011.2966999995</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>396619.7813999995</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>348416.1058999995</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>356770.6402999995</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1499781.137674591</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>952234.5902573521</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>959007.7202573521</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>961846.9202573521</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>345812.6145573521</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>323580.7284573521</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>305792.1120573521</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>447071.0957573521</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>427071.0957573521</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-67932.70254264789</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-68898.5114426479</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-68898.5114426479</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-90597.39184264789</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-90597.39184264789</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-111822.4982426479</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-187556.3595426479</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-183344.4771426479</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-181344.4771426479</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-181344.4771426479</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-180844.4771426479</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-181728.6504406143</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-252760.2087406143</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-242664.8838406143</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
